--- a/Arquivos Extração do Senado/Planilhas/Planilhas Formatadas Para Carga/2017/Sessão 003.xlsx
+++ b/Arquivos Extração do Senado/Planilhas/Planilhas Formatadas Para Carga/2017/Sessão 003.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iuri\Google Drive\Projeto de Licenciatura - PL\PL2\TCC\TCC\2017 - Excel\Completo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iuri\Google Drive\Projeto de Licenciatura - PL\PL2\Arquivos Extração do Senado\2017\2017 - Excel\Feito\Planilhas Formatadas Para Carga\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="146">
   <si>
     <r>
       <rPr>
@@ -1396,6 +1396,12 @@
   </si>
   <si>
     <t>Votação que altera a Lei nº 11.652, de 2008, para dispor sobre a prestação dos serviços de radiofusão pública e a organização da EBC.</t>
+  </si>
+  <si>
+    <t>RESULTADO</t>
+  </si>
+  <si>
+    <t>Não Informado</t>
   </si>
 </sst>
 </file>
@@ -1880,28 +1886,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.35546875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.2109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.35546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.2109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.35546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.78515625" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1935,8 +1942,11 @@
       <c r="K1" s="7" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L1" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1968,8 +1978,11 @@
         <v>2</v>
       </c>
       <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L2" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2001,8 +2014,11 @@
         <v>2</v>
       </c>
       <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L3" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2034,8 +2050,11 @@
         <v>2</v>
       </c>
       <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L4" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2067,8 +2086,11 @@
         <v>2</v>
       </c>
       <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L5" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2100,8 +2122,11 @@
         <v>2</v>
       </c>
       <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L6" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2133,8 +2158,11 @@
         <v>2</v>
       </c>
       <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L7" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2166,8 +2194,11 @@
         <v>2</v>
       </c>
       <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L8" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -2199,8 +2230,11 @@
         <v>2</v>
       </c>
       <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L9" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -2232,8 +2266,11 @@
         <v>2</v>
       </c>
       <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L10" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -2265,8 +2302,11 @@
         <v>2</v>
       </c>
       <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L11" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -2298,8 +2338,11 @@
         <v>2</v>
       </c>
       <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L12" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -2331,8 +2374,11 @@
         <v>2</v>
       </c>
       <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L13" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -2364,8 +2410,11 @@
         <v>2</v>
       </c>
       <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L14" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -2397,8 +2446,11 @@
         <v>2</v>
       </c>
       <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L15" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
@@ -2430,8 +2482,11 @@
         <v>2</v>
       </c>
       <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L16" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -2463,8 +2518,11 @@
         <v>2</v>
       </c>
       <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L17" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
@@ -2496,8 +2554,11 @@
         <v>2</v>
       </c>
       <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L18" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -2529,8 +2590,11 @@
         <v>2</v>
       </c>
       <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L19" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2562,8 +2626,11 @@
         <v>2</v>
       </c>
       <c r="K20" s="11"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L20" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
@@ -2595,8 +2662,11 @@
         <v>2</v>
       </c>
       <c r="K21" s="11"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L21" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>55</v>
       </c>
@@ -2628,8 +2698,11 @@
         <v>2</v>
       </c>
       <c r="K22" s="11"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L22" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>57</v>
       </c>
@@ -2661,8 +2734,11 @@
         <v>2</v>
       </c>
       <c r="K23" s="11"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L23" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -2694,8 +2770,11 @@
         <v>2</v>
       </c>
       <c r="K24" s="11"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L24" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
@@ -2727,8 +2806,11 @@
         <v>2</v>
       </c>
       <c r="K25" s="11"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L25" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>64</v>
       </c>
@@ -2760,8 +2842,11 @@
         <v>2</v>
       </c>
       <c r="K26" s="11"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L26" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>67</v>
       </c>
@@ -2793,8 +2878,11 @@
         <v>2</v>
       </c>
       <c r="K27" s="11"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L27" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>68</v>
       </c>
@@ -2826,8 +2914,11 @@
         <v>2</v>
       </c>
       <c r="K28" s="11"/>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L28" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>70</v>
       </c>
@@ -2859,8 +2950,11 @@
         <v>2</v>
       </c>
       <c r="K29" s="11"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L29" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
@@ -2892,8 +2986,11 @@
         <v>2</v>
       </c>
       <c r="K30" s="11"/>
-    </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L30" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
@@ -2925,8 +3022,11 @@
         <v>2</v>
       </c>
       <c r="K31" s="11"/>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L31" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>75</v>
       </c>
@@ -2958,8 +3058,11 @@
         <v>2</v>
       </c>
       <c r="K32" s="11"/>
-    </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L32" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3094,11 @@
         <v>2</v>
       </c>
       <c r="K33" s="11"/>
-    </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L33" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>77</v>
       </c>
@@ -3024,8 +3130,11 @@
         <v>2</v>
       </c>
       <c r="K34" s="11"/>
-    </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L34" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>78</v>
       </c>
@@ -3057,8 +3166,11 @@
         <v>2</v>
       </c>
       <c r="K35" s="11"/>
-    </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L35" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
@@ -3090,8 +3202,11 @@
         <v>2</v>
       </c>
       <c r="K36" s="11"/>
-    </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L36" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>80</v>
       </c>
@@ -3123,8 +3238,11 @@
         <v>2</v>
       </c>
       <c r="K37" s="11"/>
-    </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L37" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>81</v>
       </c>
@@ -3156,8 +3274,11 @@
         <v>2</v>
       </c>
       <c r="K38" s="11"/>
-    </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L38" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>82</v>
       </c>
@@ -3189,8 +3310,11 @@
         <v>2</v>
       </c>
       <c r="K39" s="11"/>
-    </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L39" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>83</v>
       </c>
@@ -3222,8 +3346,11 @@
         <v>2</v>
       </c>
       <c r="K40" s="11"/>
-    </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L40" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>84</v>
       </c>
@@ -3255,8 +3382,11 @@
         <v>2</v>
       </c>
       <c r="K41" s="11"/>
-    </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L41" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>85</v>
       </c>
@@ -3288,8 +3418,11 @@
         <v>2</v>
       </c>
       <c r="K42" s="11"/>
-    </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L42" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>86</v>
       </c>
@@ -3321,8 +3454,11 @@
         <v>2</v>
       </c>
       <c r="K43" s="11"/>
-    </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L43" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
@@ -3354,8 +3490,11 @@
         <v>2</v>
       </c>
       <c r="K44" s="11"/>
-    </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L44" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>89</v>
       </c>
@@ -3387,8 +3526,11 @@
         <v>2</v>
       </c>
       <c r="K45" s="11"/>
-    </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L45" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
@@ -3420,8 +3562,11 @@
         <v>2</v>
       </c>
       <c r="K46" s="11"/>
-    </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L46" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>91</v>
       </c>
@@ -3453,8 +3598,11 @@
         <v>2</v>
       </c>
       <c r="K47" s="11"/>
-    </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L47" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>93</v>
       </c>
@@ -3486,8 +3634,11 @@
         <v>2</v>
       </c>
       <c r="K48" s="11"/>
-    </row>
-    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L48" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>94</v>
       </c>
@@ -3519,8 +3670,11 @@
         <v>2</v>
       </c>
       <c r="K49" s="11"/>
-    </row>
-    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L49" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
@@ -3552,8 +3706,11 @@
         <v>2</v>
       </c>
       <c r="K50" s="11"/>
-    </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L50" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>98</v>
       </c>
@@ -3585,8 +3742,11 @@
         <v>2</v>
       </c>
       <c r="K51" s="11"/>
-    </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L51" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>99</v>
       </c>
@@ -3618,8 +3778,11 @@
         <v>2</v>
       </c>
       <c r="K52" s="11"/>
-    </row>
-    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L52" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>100</v>
       </c>
@@ -3651,8 +3814,11 @@
         <v>2</v>
       </c>
       <c r="K53" s="11"/>
-    </row>
-    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L53" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>101</v>
       </c>
@@ -3684,8 +3850,11 @@
         <v>2</v>
       </c>
       <c r="K54" s="11"/>
-    </row>
-    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L54" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>102</v>
       </c>
@@ -3717,8 +3886,11 @@
         <v>2</v>
       </c>
       <c r="K55" s="11"/>
-    </row>
-    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L55" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>103</v>
       </c>
@@ -3750,8 +3922,11 @@
         <v>2</v>
       </c>
       <c r="K56" s="11"/>
-    </row>
-    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L56" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>104</v>
       </c>
@@ -3783,8 +3958,11 @@
         <v>2</v>
       </c>
       <c r="K57" s="11"/>
-    </row>
-    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L57" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>105</v>
       </c>
@@ -3816,8 +3994,11 @@
         <v>2</v>
       </c>
       <c r="K58" s="11"/>
-    </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L58" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>108</v>
       </c>
@@ -3849,8 +4030,11 @@
         <v>2</v>
       </c>
       <c r="K59" s="11"/>
-    </row>
-    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L59" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>109</v>
       </c>
@@ -3882,8 +4066,11 @@
         <v>2</v>
       </c>
       <c r="K60" s="11"/>
-    </row>
-    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L60" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>111</v>
       </c>
@@ -3915,8 +4102,11 @@
         <v>2</v>
       </c>
       <c r="K61" s="11"/>
-    </row>
-    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L61" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>112</v>
       </c>
@@ -3948,8 +4138,11 @@
         <v>2</v>
       </c>
       <c r="K62" s="11"/>
-    </row>
-    <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L62" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>114</v>
       </c>
@@ -3981,8 +4174,11 @@
         <v>2</v>
       </c>
       <c r="K63" s="11"/>
-    </row>
-    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L63" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>115</v>
       </c>
@@ -4014,8 +4210,11 @@
         <v>2</v>
       </c>
       <c r="K64" s="11"/>
-    </row>
-    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L64" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>116</v>
       </c>
@@ -4047,8 +4246,11 @@
         <v>2</v>
       </c>
       <c r="K65" s="11"/>
-    </row>
-    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L65" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>117</v>
       </c>
@@ -4080,8 +4282,11 @@
         <v>2</v>
       </c>
       <c r="K66" s="11"/>
-    </row>
-    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L66" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>118</v>
       </c>
@@ -4113,8 +4318,11 @@
         <v>2</v>
       </c>
       <c r="K67" s="11"/>
-    </row>
-    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L67" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>119</v>
       </c>
@@ -4146,8 +4354,11 @@
         <v>2</v>
       </c>
       <c r="K68" s="11"/>
-    </row>
-    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L68" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>120</v>
       </c>
@@ -4179,8 +4390,11 @@
         <v>2</v>
       </c>
       <c r="K69" s="11"/>
-    </row>
-    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L69" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>121</v>
       </c>
@@ -4212,8 +4426,11 @@
         <v>2</v>
       </c>
       <c r="K70" s="11"/>
-    </row>
-    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L70" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>122</v>
       </c>
@@ -4245,8 +4462,11 @@
         <v>2</v>
       </c>
       <c r="K71" s="11"/>
-    </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L71" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>123</v>
       </c>
@@ -4278,8 +4498,11 @@
         <v>2</v>
       </c>
       <c r="K72" s="11"/>
-    </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L72" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>124</v>
       </c>
@@ -4311,8 +4534,11 @@
         <v>2</v>
       </c>
       <c r="K73" s="11"/>
-    </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L73" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>125</v>
       </c>
@@ -4344,8 +4570,11 @@
         <v>2</v>
       </c>
       <c r="K74" s="11"/>
-    </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L74" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>126</v>
       </c>
@@ -4377,8 +4606,11 @@
         <v>2</v>
       </c>
       <c r="K75" s="11"/>
-    </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L75" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>127</v>
       </c>
@@ -4410,8 +4642,11 @@
         <v>2</v>
       </c>
       <c r="K76" s="11"/>
-    </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L76" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>128</v>
       </c>
@@ -4443,8 +4678,11 @@
         <v>2</v>
       </c>
       <c r="K77" s="11"/>
-    </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L77" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>130</v>
       </c>
@@ -4476,8 +4714,11 @@
         <v>2</v>
       </c>
       <c r="K78" s="11"/>
-    </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L78" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>131</v>
       </c>
@@ -4509,8 +4750,11 @@
         <v>2</v>
       </c>
       <c r="K79" s="11"/>
-    </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L79" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>132</v>
       </c>
@@ -4542,8 +4786,11 @@
         <v>2</v>
       </c>
       <c r="K80" s="11"/>
-    </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L80" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>133</v>
       </c>
@@ -4575,8 +4822,11 @@
         <v>2</v>
       </c>
       <c r="K81" s="11"/>
-    </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L81" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>134</v>
       </c>
@@ -4608,6 +4858,9 @@
         <v>2</v>
       </c>
       <c r="K82" s="11"/>
+      <c r="L82" s="11" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
